--- a/RiskParity_Holdings.xlsx
+++ b/RiskParity_Holdings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,14 +452,9 @@
         <v>Metals</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>hello</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/RiskParity_Holdings.xlsx
+++ b/RiskParity_Holdings.xlsx
@@ -458,7 +458,7 @@
         <v>IUES.L</v>
       </c>
       <c r="B7" t="str">
-        <v>Energies</v>
+        <v>Energy</v>
       </c>
     </row>
     <row r="8">

--- a/RiskParity_Holdings.xlsx
+++ b/RiskParity_Holdings.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\down1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A37D9F-8A12-4480-B24C-181E2AD56307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>Asset</t>
   </si>
@@ -31,46 +25,133 @@
     <t>Group</t>
   </si>
   <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Type_Relative</t>
+  </si>
+  <si>
+    <t>Relative_Set</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
     <t>TLT</t>
   </si>
   <si>
     <t>Bonds</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
     <t>STIP</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Equities</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>SPY</t>
   </si>
   <si>
-    <t>Equities</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Renewables</t>
   </si>
   <si>
     <t>QQQ</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
     <t>ICLN</t>
   </si>
   <si>
-    <t>Renewables</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
   </si>
   <si>
     <t>IUES.L</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Metals</t>
   </si>
   <si>
     <t>XLV</t>
   </si>
   <si>
-    <t>Healthcare</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
   <si>
     <t>AAAU</t>
   </si>
   <si>
-    <t>Metals</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>0.01</t>
   </si>
   <si>
     <t>NPF.NZ</t>
@@ -79,112 +160,29 @@
     <t>Housing</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>All Assets</t>
+  </si>
+  <si>
     <t>VNQ</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Disabled</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Sign</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Type_Relative</t>
-  </si>
-  <si>
-    <t>Relative_Set</t>
-  </si>
-  <si>
-    <t>Relative</t>
-  </si>
-  <si>
-    <t>Factor</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>Classes</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>All Assets</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -211,21 +209,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -236,10 +245,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -277,71 +286,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,50 +374,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -418,7 +430,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -427,7 +439,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -436,7 +448,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -444,10 +456,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -476,7 +488,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -489,13 +501,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -507,434 +518,451 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>35</v>
+      <c r="J11" s="3">
+        <v>0.2</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:C11" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/RiskParity_Holdings.xlsx
+++ b/RiskParity_Holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>Asset</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Bonds</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>FALSE</t>
   </si>
   <si>
@@ -76,36 +73,21 @@
     <t>&gt;=</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>STIP</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Equities</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>SPY</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Renewables</t>
   </si>
   <si>
     <t>QQQ</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
@@ -115,54 +97,33 @@
     <t>ICLN</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Healthcare</t>
   </si>
   <si>
     <t>IUES.L</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Metals</t>
   </si>
   <si>
     <t>XLV</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>AAAU</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>&gt;</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>NPF.NZ</t>
   </si>
   <si>
     <t>Housing</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>All Assets</t>
   </si>
   <si>
@@ -170,9 +131,6 @@
   </si>
   <si>
     <t>&lt;</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -180,13 +138,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,7 +161,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -209,21 +180,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -534,20 +514,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -560,7 +540,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -578,7 +558,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -602,14 +582,14 @@
         <v>15</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -618,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.2</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -630,32 +610,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
+      <c r="D3" s="2">
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -664,32 +644,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
+      <c r="D4" s="2">
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -698,32 +678,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
+      <c r="D5" s="2">
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.2</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -732,32 +712,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
+      <c r="D6" s="2">
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -766,32 +746,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
+      <c r="D7" s="2">
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -800,33 +780,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
+      <c r="D8" s="2">
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -834,33 +814,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
+      <c r="D9" s="2">
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.01</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -868,28 +848,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
+      <c r="D10" s="2">
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.01</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -898,29 +878,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="3">
+        <v>38</v>
+      </c>
+      <c r="J11" s="5">
         <v>0.2</v>
       </c>
       <c r="K11" s="1"/>
@@ -929,33 +911,29 @@
       <c r="N11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.2</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>

--- a/RiskParity_Holdings.xlsx
+++ b/RiskParity_Holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>Asset</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>VNQ</t>
-  </si>
-  <si>
-    <t>&lt;</t>
   </si>
 </sst>
 </file>
@@ -138,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +146,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -185,16 +188,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -204,7 +207,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +511,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -600,7 +603,7 @@
       <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>0.2</v>
       </c>
       <c r="K2" s="1"/>
@@ -634,7 +637,7 @@
       <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="1"/>
@@ -668,7 +671,7 @@
       <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="1"/>
@@ -702,7 +705,7 @@
       <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>0.2</v>
       </c>
       <c r="K5" s="1"/>
@@ -736,7 +739,7 @@
       <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="1"/>
@@ -770,7 +773,7 @@
       <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="1"/>
@@ -802,7 +805,7 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>0.1</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -836,7 +839,7 @@
       <c r="I9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <v>0.01</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -868,7 +871,7 @@
       <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <v>0.01</v>
       </c>
       <c r="K10" s="1"/>
@@ -876,7 +879,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -884,25 +887,25 @@
         <v>35</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="4">
-        <v>10</v>
+      <c r="D11" s="5">
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="5">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4">
         <v>0.2</v>
       </c>
       <c r="K11" s="1"/>
@@ -910,36 +913,6 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RiskParity_Holdings.xlsx
+++ b/RiskParity_Holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>Asset</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>VNQ</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -135,19 +141,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -197,8 +197,8 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -511,7 +511,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -533,7 +533,7 @@
     <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -781,7 +781,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -887,8 +887,8 @@
         <v>35</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="5">
-        <v>11</v>
+      <c r="D11" s="2">
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -900,19 +900,53 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J11" s="4">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
